--- a/pin-mapping.xlsx
+++ b/pin-mapping.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sylvain\Documents\chariot-elevateur-elec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Git\chariot-elevateur-elec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D887CF7F-A35B-44D7-8ADF-96B682B40ECE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{66857E0F-C151-4F71-9564-15CA5370E3B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{B391928D-25A8-4154-8942-4F85F75D0D6D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" xr2:uid="{B391928D-25A8-4154-8942-4F85F75D0D6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>I2C Bus</t>
   </si>
@@ -96,72 +90,9 @@
     <t>Smoke</t>
   </si>
   <si>
-    <t>2 (PWM)</t>
-  </si>
-  <si>
-    <t>3 (DIR)</t>
-  </si>
-  <si>
-    <t>4 (STEP)</t>
-  </si>
-  <si>
-    <t>5 (RST)</t>
-  </si>
-  <si>
-    <t>6 (IN)</t>
-  </si>
-  <si>
-    <t>24 (IN)</t>
-  </si>
-  <si>
-    <t>25 (AVG)</t>
-  </si>
-  <si>
-    <t>26 (AVGF)</t>
-  </si>
-  <si>
-    <t>27 (AVDF)</t>
-  </si>
-  <si>
-    <t>28 (AVD)</t>
-  </si>
-  <si>
-    <t>29 (ARD1)</t>
-  </si>
-  <si>
-    <t>30 (ARD2)</t>
-  </si>
-  <si>
-    <t>31 (ARG2)</t>
-  </si>
-  <si>
-    <t>32 (ARG1)</t>
-  </si>
-  <si>
-    <t>33 (G_A)</t>
-  </si>
-  <si>
-    <t>34 (G_B)</t>
-  </si>
-  <si>
-    <t>35 (D_A)</t>
-  </si>
-  <si>
-    <t>36 (D_B)</t>
-  </si>
-  <si>
-    <t>37 (OUT)</t>
-  </si>
-  <si>
-    <t>38 (OUT)</t>
-  </si>
-  <si>
     <t>Color picker</t>
   </si>
   <si>
-    <t>39 (IN)</t>
-  </si>
-  <si>
     <t>Debug LED</t>
   </si>
   <si>
@@ -169,6 +100,81 @@
   </si>
   <si>
     <t>20 (PWM)</t>
+  </si>
+  <si>
+    <t>6 (AR)</t>
+  </si>
+  <si>
+    <t>7 (AR)</t>
+  </si>
+  <si>
+    <t>8 (IN)</t>
+  </si>
+  <si>
+    <t>9 (IN)</t>
+  </si>
+  <si>
+    <t>29 (DIR)</t>
+  </si>
+  <si>
+    <t>30 (STEP)</t>
+  </si>
+  <si>
+    <t>31 (SLEEP)</t>
+  </si>
+  <si>
+    <t>32 (RST)</t>
+  </si>
+  <si>
+    <t>28 (MS1)</t>
+  </si>
+  <si>
+    <t>27 (MS2)</t>
+  </si>
+  <si>
+    <t>26 (MS1)</t>
+  </si>
+  <si>
+    <t>37 (IN)</t>
+  </si>
+  <si>
+    <t>17 (PWM)</t>
+  </si>
+  <si>
+    <t>34 (G_A)</t>
+  </si>
+  <si>
+    <t>33 (G_B)</t>
+  </si>
+  <si>
+    <t>39 (D_A)</t>
+  </si>
+  <si>
+    <t>38 (D_B)</t>
+  </si>
+  <si>
+    <t>24 (AV_G)</t>
+  </si>
+  <si>
+    <t>25 (AV_SG)</t>
+  </si>
+  <si>
+    <t>36 (AV_SD)</t>
+  </si>
+  <si>
+    <t>35 (AV_D)</t>
+  </si>
+  <si>
+    <t>16 (AR_FD)</t>
+  </si>
+  <si>
+    <t>23 (AR_D)</t>
+  </si>
+  <si>
+    <t>22 (AR_G)</t>
+  </si>
+  <si>
+    <t>21 (AR_FG)</t>
   </si>
 </sst>
 </file>
@@ -204,8 +210,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,18 +530,18 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.28515625" customWidth="1"/>
+    <col min="2" max="6" width="11.33203125" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -557,11 +564,11 @@
       </c>
       <c r="O1">
         <f>COUNTA(B:M)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -571,8 +578,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -582,123 +589,141 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
